--- a/input/extension/user-defined-energy/TEST_lvl3-instructions.xlsx
+++ b/input/extension/user-defined-energy/TEST_lvl3-instructions.xlsx
@@ -471,7 +471,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -527,7 +527,7 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>13</v>
       </c>
     </row>

--- a/input/extension/user-defined-energy/TEST_lvl3-instructions.xlsx
+++ b/input/extension/user-defined-energy/TEST_lvl3-instructions.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>iso</t>
   </si>
@@ -52,21 +52,6 @@
   </si>
   <si>
     <t>priority</t>
-  </si>
-  <si>
-    <t>L1_agg_fuel</t>
-  </si>
-  <si>
-    <t>L2_CEDS_fuel</t>
-  </si>
-  <si>
-    <t>L3_agg_sector</t>
-  </si>
-  <si>
-    <t>L4_CEDS_sector</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>linear</t>
@@ -420,7 +405,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -440,13 +425,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>1937</v>
@@ -458,7 +443,7 @@
         <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -468,15 +453,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -484,7 +469,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -495,28 +480,16 @@
       <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="D2">
         <v>1937</v>
@@ -526,9 +499,6 @@
       </c>
       <c r="F2">
         <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
